--- a/Customer_Order_Exp_Dataset.xlsx
+++ b/Customer_Order_Exp_Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CDE345-EBB5-1B4E-9CD4-C3091EE47CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448C89F2-576C-F046-9AA8-BA6B8DE4DD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1120" windowWidth="30040" windowHeight="15980" xr2:uid="{249923C2-717E-F44B-9D41-3A037F7CDE74}"/>
+    <workbookView xWindow="2060" yWindow="6880" windowWidth="28800" windowHeight="15980" xr2:uid="{249923C2-717E-F44B-9D41-3A037F7CDE74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADAEFFA-9784-CE4C-BCBC-42463A0ABD42}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
